--- a/compras/relatorio_compras_2024.xlsx
+++ b/compras/relatorio_compras_2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>RELATORIO RESUMO GERAL CLINICA PARQUE - 2024</t>
   </si>
@@ -62,13 +62,37 @@
     <t>TOTAL:</t>
   </si>
   <si>
+    <t>LENTE DE CONTATO</t>
+  </si>
+  <si>
     <t>LENTE INTRAOCULAR</t>
   </si>
   <si>
+    <t>MEDICAMENTOS</t>
+  </si>
+  <si>
+    <t>PRODUTOS DE LIMPEZA</t>
+  </si>
+  <si>
     <t>RELATORIO RESUMO GERAL CLINICA MAUÁ - 2024</t>
   </si>
   <si>
     <t>RELATORIO RESUMO GERAL CLINICA JARDIM - 2024</t>
+  </si>
+  <si>
+    <t>RELATORIO RESUMO GERAL ÓTICA MATRIZ - 2024</t>
+  </si>
+  <si>
+    <t>ARMAçõES</t>
+  </si>
+  <si>
+    <t>ESTOJO DE OCULOS</t>
+  </si>
+  <si>
+    <t>RELATORIO RESUMO GERAL ÓTICA PRESTIGIO - 2024</t>
+  </si>
+  <si>
+    <t>RELATORIO RESUMO GERAL ÓTICA DAILY - 2024</t>
   </si>
 </sst>
 </file>
@@ -107,7 +131,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -116,7 +140,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF4682B4"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFADD8E6"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF32CD32"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF98FB98"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -133,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -143,6 +185,13 @@
     </xf>
     <xf xfId="0" fontId="0" numFmtId="164" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="3" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="164" fillId="5" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -442,19 +491,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="23.423" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="11.569" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -463,7 +512,7 @@
     <col min="11" max="11" width="11.569" bestFit="true" customWidth="true" style="0"/>
     <col min="12" max="12" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="13" max="13" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="16.425" bestFit="true" customWidth="true" style="0"/>
+    <col min="14" max="14" width="17.567" bestFit="true" customWidth="true" style="0"/>
     <col min="15" max="15" width="9.10" bestFit="true" style="0"/>
     <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
   </cols>
@@ -525,7 +574,7 @@
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3">
-        <v>1373.51</v>
+        <v>3978.28</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -536,18 +585,18 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="4">
-        <v>1373.51</v>
+        <v>3978.28</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
-        <v>1373.51</v>
+        <v>6287.0</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -558,184 +607,488 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="4">
-        <v>1373.51</v>
+        <v>6287.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3">
+        <v>1099.2</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="4">
+        <v>1099.2</v>
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="1" t="s">
-        <v>16</v>
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3">
+        <v>472.55</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="4">
+        <v>472.55</v>
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6">
+        <v>11837.03</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="4">
+        <v>11837.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="4"/>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N12" t="s">
-        <v>14</v>
-      </c>
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="4"/>
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3">
+        <v>258.52</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="4">
+        <v>3978.28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <v>258.52</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="4">
+        <v>258.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3">
+        <v>1512.69</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="4"/>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3">
+        <v>2289.2</v>
+      </c>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="4"/>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9">
+        <v>3801.89</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="4">
+        <v>3801.89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="4"/>
+    </row>
+    <row r="28" spans="1:16">
+      <c r="A28" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A6:N6"/>
-    <mergeCell ref="A11:N11"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A13:N13"/>
+    <mergeCell ref="A18:N18"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A28:N28"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/compras/relatorio_compras_2024.xlsx
+++ b/compras/relatorio_compras_2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>RELATORIO RESUMO GERAL CLINICA PARQUE - 2024</t>
   </si>
@@ -68,6 +68,9 @@
     <t>LENTE INTRAOCULAR</t>
   </si>
   <si>
+    <t>MATERIAIS DE ESCRITORIO</t>
+  </si>
+  <si>
     <t>MEDICAMENTOS</t>
   </si>
   <si>
@@ -75,6 +78,9 @@
   </si>
   <si>
     <t>RELATORIO RESUMO GERAL CLINICA MAUÁ - 2024</t>
+  </si>
+  <si>
+    <t>MANUTENCAO PREDIAL</t>
   </si>
   <si>
     <t>RELATORIO RESUMO GERAL CLINICA JARDIM - 2024</t>
@@ -491,20 +497,20 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N30" sqref="N30"/>
+      <selection activeCell="N36" sqref="N36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="23.423" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="28.136" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="11.569" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="8.141" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="13.997" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="9" max="9" width="10.426" bestFit="true" customWidth="true" style="0"/>
@@ -596,7 +602,7 @@
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3">
-        <v>6287.0</v>
+        <v>9362.79</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -607,7 +613,7 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="4">
-        <v>6287.0</v>
+        <v>9362.79</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -618,7 +624,7 @@
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3">
-        <v>1099.2</v>
+        <v>598.0</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -629,7 +635,7 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="4">
-        <v>1099.2</v>
+        <v>598.0</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -640,7 +646,7 @@
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3">
-        <v>472.55</v>
+        <v>1099.2</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -651,444 +657,582 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="4">
+        <v>1099.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3">
         <v>472.55</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="5" t="s">
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="4">
+        <v>472.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6">
-        <v>11837.03</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="4">
-        <v>11837.03</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="1" t="s">
-        <v>19</v>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>15510.82</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="4">
+        <v>15510.82</v>
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" t="s">
+      <c r="A10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N10" t="s">
+      <c r="N11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="4"/>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3">
+        <v>1216.75</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="4">
+        <v>3978.28</v>
+      </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3">
+        <v>2258.77</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3">
+        <v>299.7</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="4">
+        <v>472.55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>3775.22</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="4">
+        <v>3775.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B18" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N18" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3">
-        <v>258.52</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="4">
-        <v>3978.28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
-        <v>258.52</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="4">
-        <v>258.52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3">
+        <v>258.52</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="4">
+        <v>3978.28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6">
+        <v>258.52</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="4">
+        <v>258.52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
         <v>1</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3">
-        <v>1512.69</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:16">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3">
-        <v>2289.2</v>
-      </c>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9">
-        <v>3801.89</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="4">
-        <v>3801.89</v>
-      </c>
-    </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="7" t="s">
+      <c r="A24" t="s">
         <v>24</v>
       </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3">
+        <v>3790.41</v>
+      </c>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="4"/>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3">
+        <v>2289.2</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="4"/>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3">
+        <v>500.0</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="4">
+        <v>3978.28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9">
+        <v>6079.61</v>
+      </c>
+      <c r="F27" s="9">
+        <v>500.0</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="4">
+        <v>6579.61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
+      <c r="A29" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
+      <c r="A30" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B30" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J30" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L30" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M30" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="8" t="s">
+    <row r="31" spans="1:16">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3">
+        <v>877.43</v>
+      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="4"/>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="4"/>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9">
+        <v>877.43</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="4">
+        <v>877.43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B35" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D35" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="I35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="K35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="8" t="s">
+    <row r="36" spans="1:16">
+      <c r="A36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
-      <c r="L30" s="9"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="4"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A13:N13"/>
-    <mergeCell ref="A18:N18"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A28:N28"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A17:N17"/>
+    <mergeCell ref="A22:N22"/>
+    <mergeCell ref="A29:N29"/>
+    <mergeCell ref="A34:N34"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
